--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2626.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2626.xlsx
@@ -354,7 +354,7 @@
         <v>1.614142080997927</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.720374880787198</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2626.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2626.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7864861344399919</v>
+        <v>1.257390022277832</v>
       </c>
       <c r="B1">
-        <v>1.614142080997927</v>
+        <v>2.313507795333862</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>3.697669506072998</v>
       </c>
       <c r="D1">
-        <v>1.720374880787198</v>
+        <v>2.758620977401733</v>
       </c>
       <c r="E1">
-        <v>0.9030030662655152</v>
+        <v>1.361572742462158</v>
       </c>
     </row>
   </sheetData>
